--- a/result.xlsx
+++ b/result.xlsx
@@ -479,27 +479,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ABD</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>ABD</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -509,12 +509,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -539,42 +539,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -594,42 +594,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -654,52 +654,52 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -714,52 +714,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>BCD</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>ACD</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>ACD</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -839,47 +839,47 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>ACD</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -894,17 +894,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -954,22 +954,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -994,17 +994,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1024,22 +1024,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1074,57 +1074,57 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1134,57 +1134,57 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ABCD</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ABCD</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1194,52 +1194,52 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>BCD</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1264,32 +1264,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ABCD</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1314,12 +1314,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1334,37 +1334,37 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1384,47 +1384,47 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ABD</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1434,37 +1434,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1494,47 +1494,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1559,27 +1559,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BCD</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ABCD</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1589,22 +1589,22 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1614,57 +1614,57 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1674,22 +1674,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BCD</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ABCD</t>
+          <t>BCD</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1714,17 +1714,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1759,32 +1759,32 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1794,12 +1794,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1809,27 +1809,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1839,12 +1839,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1854,22 +1854,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1924,37 +1924,37 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1979,32 +1979,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>BCD</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2014,17 +2014,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2034,37 +2034,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>ABD</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>E</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>C</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2104,27 +2104,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ABCD</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2134,12 +2134,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2154,57 +2154,57 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2214,22 +2214,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2239,12 +2239,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2259,12 +2259,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2274,42 +2274,42 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2334,12 +2334,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2349,22 +2349,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>BCD</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2374,17 +2374,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2394,42 +2394,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2439,12 +2439,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2454,22 +2454,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ACD</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>ABCD</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2489,22 +2489,22 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2514,22 +2514,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2559,12 +2559,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2574,47 +2574,47 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2639,17 +2639,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>ABD</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2704,27 +2704,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ABD</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2779,22 +2779,22 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2814,37 +2814,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ACD</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2879,22 +2879,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2904,27 +2904,27 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2939,37 +2939,37 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>ABD</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ABCD</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>BCD</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3069,42 +3069,42 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>ACD</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3114,12 +3114,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3134,17 +3134,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>ABD</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3154,17 +3154,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3184,42 +3184,42 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3234,47 +3234,47 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ABCD</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ACD</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3294,12 +3294,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3309,22 +3309,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3369,12 +3369,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3414,17 +3414,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3444,27 +3444,27 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3474,12 +3474,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3494,22 +3494,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3544,27 +3544,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>ABCD</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>ACD</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3574,17 +3574,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3604,12 +3604,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3619,27 +3619,27 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>BCD</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3654,12 +3654,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3669,12 +3669,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>BCD</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3694,17 +3694,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3734,27 +3734,27 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>ABCD</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3774,22 +3774,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3799,27 +3799,27 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3834,57 +3834,57 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BCD</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3894,17 +3894,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3929,22 +3929,22 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3989,17 +3989,17 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4019,27 +4019,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -4074,22 +4074,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4099,32 +4099,32 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>ACD</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4134,52 +4134,52 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4199,27 +4199,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4264,22 +4264,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ACD</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4329,22 +4329,22 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4354,17 +4354,17 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -4374,22 +4374,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ABCD</t>
+          <t>ACD</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4399,32 +4399,32 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -4439,37 +4439,37 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>ACD</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4479,12 +4479,12 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4499,32 +4499,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>ACD</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4534,17 +4534,17 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4559,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4574,12 +4574,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -4619,17 +4619,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>ABD</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4639,17 +4639,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4674,32 +4674,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4709,22 +4709,22 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -4734,17 +4734,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4754,19 +4754,19 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="I73" t="inlineStr">
         <is>
           <t>C</t>
@@ -4774,12 +4774,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4809,22 +4809,22 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>ACD</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>BCD</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4834,12 +4834,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4854,37 +4854,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4924,22 +4924,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>ABD</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4954,17 +4954,17 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4989,27 +4989,27 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5019,12 +5019,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5034,22 +5034,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -5059,32 +5059,32 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>ABCD</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5099,52 +5099,52 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>ABCD</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -5154,42 +5154,42 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>ACD</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5224,32 +5224,32 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5284,37 +5284,37 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ABD</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ACD</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5344,27 +5344,27 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5374,17 +5374,17 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5399,52 +5399,52 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -5459,27 +5459,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>ABCD</t>
+          <t>ACD</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -5494,17 +5494,17 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5519,52 +5519,52 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>BCD</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5574,17 +5574,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -5594,22 +5594,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5634,12 +5634,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -5649,37 +5649,37 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5694,12 +5694,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -5709,27 +5709,27 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5764,47 +5764,47 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BCD</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5814,27 +5814,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>ACD</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -5844,27 +5844,27 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5874,32 +5874,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ABD</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5909,22 +5909,22 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5934,22 +5934,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ACD</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5959,12 +5959,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>ABD</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5974,12 +5974,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5994,17 +5994,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -6054,42 +6054,42 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6104,7 +6104,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6124,47 +6124,47 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>BCD</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6174,12 +6174,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -6189,12 +6189,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6204,22 +6204,22 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6239,27 +6239,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>ABD</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -6269,12 +6269,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6304,27 +6304,27 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6359,32 +6359,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>ACD</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6394,17 +6394,17 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6414,12 +6414,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -6439,12 +6439,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6454,17 +6454,17 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
